--- a/data/videos.xlsx
+++ b/data/videos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="329">
   <si>
     <t>Title</t>
   </si>
@@ -43,9 +48,6 @@
   </si>
   <si>
     <t>Bioinformatics DotCa</t>
-  </si>
-  <si>
-    <t>Pathway,Analysis, Network,Enrichment,Gene list,Omics Data,Annotation,Gene Identifier,Gene Function,Tool</t>
   </si>
   <si>
     <t>English</t>
@@ -64,54 +66,36 @@
 Bioinformatics DotCa</t>
   </si>
   <si>
-    <t>Annotation,Tool,Missense Effect Prediction Model,Somatic Variants,Pathway,gene,Variant,Protein-coding,Phylop,Gene mapping</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=oFluP9nNqSA'&gt;https://www.youtube.com/watch?v=oFluP9nNqSA&lt;/a&gt;</t>
   </si>
   <si>
     <t>Pathway Analysis and Biological Interpretations Part 2</t>
   </si>
   <si>
-    <t>Pathway,Analysis, Biological Interpretations,Enrichment,Expression,GSEA,P-value,Bonferroni,FDR,Network,Mapping,Visualization</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=WcU6Jkta1uQ'&gt;https://www.youtube.com/watch?v=WcU6Jkta1uQ&lt;/a&gt;</t>
   </si>
   <si>
     <t>Pathway and Network Analysis</t>
   </si>
   <si>
-    <t>Pathway,Analysis, Network,Gene Function,GO,Database,Kegg,Reactome,FI,Hypergeometrical</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=6UWPN6LKOhg'&gt;https://www.youtube.com/watch?v=6UWPN6LKOhg&lt;/a&gt;</t>
   </si>
   <si>
     <t>Introduction to Pathway and Network Analysis of Gene Lists</t>
   </si>
   <si>
-    <t>Mapping,Gene List,Omics data,ASD,Variants,Pathway,Analysis, Network,Enrichment,Workflow,Identifier,GO,Annotation</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=3F5UcwYfY40'&gt;https://www.youtube.com/watch?v=3F5UcwYfY40&lt;/a&gt;</t>
   </si>
   <si>
     <t>Finding Over-Represented Pathways in Gene Lists</t>
   </si>
   <si>
-    <t>Enrichment Tools,ORA,Enrichment test,Fisher's Exact Test,Hypergenometric Test,Test Correction,FDR,Normalization,Gene list,Time-course,GSEA</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=bvPJyP7XIzw'&gt;https://www.youtube.com/watch?v=bvPJyP7XIzw&lt;/a&gt;</t>
   </si>
   <si>
     <t>More Depth on Pathway and Network Analysis</t>
   </si>
   <si>
-    <t>Pathway,Analysis, Network,Enrichment,Gene list,Mechanistic Model,Quantitative model,Pathway Database,Reaction-Network,</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=Ka3I2-_99CQ'&gt;https://www.youtube.com/watch?v=Ka3I2-_99CQ&lt;/a&gt;</t>
   </si>
   <si>
@@ -121,25 +105,16 @@
     <t>Avi Ma'ayan</t>
   </si>
   <si>
-    <t>ORA,GSEA, Gene Set,Hypergenometric Test,Urn model,Fisher Exact test,</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=byiTOWTMzN4'&gt;https://www.youtube.com/watch?v=byiTOWTMzN4&lt;/a&gt;</t>
   </si>
   <si>
     <t>Lecture 24 - Enrichment Analysis Part 2</t>
   </si>
   <si>
-    <t>Jaccard index,ORA,GSEA, Gene Set,Hypergenometric Test,Urn model,Fisher Exact test,</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=y3zs0oI5YUs'&gt;https://www.youtube.com/watch?v=y3zs0oI5YUs&lt;/a&gt;</t>
   </si>
   <si>
     <t>Developing and Benchmarking Gene Set Enrichment Analysis Methods</t>
-  </si>
-  <si>
-    <t>Benchmark,Fisher Exact test,Impurity,Machine Learning,Gene Correlation,Enrichment score,Pairwise Enrichment,Bridge Plot,Visualization</t>
   </si>
   <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=IyDvGPtHP7U'&gt;https://www.youtube.com/watch?v=IyDvGPtHP7U&lt;/a&gt;</t>
@@ -152,9 +127,6 @@
 GenomeSpace</t>
   </si>
   <si>
-    <t>SNPs,GSEA,Biological,function,Galaxy</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=6RTthw1R47U'&gt;https://www.youtube.com/watch?v=6RTthw1R47U&lt;/a&gt;</t>
   </si>
   <si>
@@ -165,9 +137,6 @@
 BioBam Bioinformatics</t>
   </si>
   <si>
-    <t>GSEA,Gene List,Functional,Visualization,OmicsBox,Blast2GO,Gene Rank</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=aPhWVF7Ucck'&gt;https://www.youtube.com/watch?v=aPhWVF7Ucck&lt;/a&gt;</t>
   </si>
   <si>
@@ -178,9 +147,6 @@
 settembrini42</t>
   </si>
   <si>
-    <t>Gene set,Analysis,EnrichNet,Network-based,Enrichment,Overlap-based,user-defined,Functional,Visualization, Web-application,Web-service,Visualization,Cellular Pathway</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=rfyD9DJkAw4'&gt;https://www.youtube.com/watch?v=rfyD9DJkAw4&lt;/a&gt;</t>
   </si>
   <si>
@@ -190,9 +156,6 @@
     <t>National Human Genome Research Institute</t>
   </si>
   <si>
-    <t>Reactome,KEGG,Biocarta,NCI-PID,Pathway Commons,Expression,Function,Pathway,Analysis</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=wDha8Tq6_Dw'&gt;https://www.youtube.com/watch?v=wDha8Tq6_Dw&lt;/a&gt;</t>
   </si>
   <si>
@@ -200,9 +163,6 @@
   </si>
   <si>
     <t>Reactome Knowledgebase</t>
-  </si>
-  <si>
-    <t>Pathway,Analysis,Reactome,Assignment</t>
   </si>
   <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=9cFIDt9v0wY'&gt;https://www.youtube.com/watch?v=9cFIDt9v0wY&lt;/a&gt;</t>
@@ -215,9 +175,6 @@
 NIAID Bioinformatics</t>
   </si>
   <si>
-    <t>DAVID,GSEA,Functional Enrichment Analysis,Gene Set,P-value,Annotation,Gene List,GO</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=xIu9mm6b7N0'&gt;https://www.youtube.com/watch?v=xIu9mm6b7N0&lt;/a&gt;</t>
   </si>
   <si>
@@ -233,9 +190,6 @@
     <t>Melinda Song</t>
   </si>
   <si>
-    <t>DAVID,GSEA,Functional Enrichment Analysis,Gene List,Functional Annotation,GO,KEGG,</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=cRYFQADf_vg'&gt;https://www.youtube.com/watch?v=cRYFQADf_vg&lt;/a&gt;</t>
   </si>
   <si>
@@ -243,9 +197,6 @@
   </si>
   <si>
     <t>GenePattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GSEA,Tool,MMGP,Functional Enrichment Analysis,Enrichment plot</t>
   </si>
   <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=fcHbSMn9B1o'&gt;https://www.youtube.com/watch?v=fcHbSMn9B1o&lt;/a&gt;</t>
@@ -258,36 +209,24 @@
 Advaita BioInformatics</t>
   </si>
   <si>
-    <t xml:space="preserve">Enrichment Tools,ORA,FCS,PT,Pathway Topology,Enrichment test,GSEA,DE Genes,INSR, pros and cons </t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=t90x9TlW6Y0'&gt;https://www.youtube.com/watch?v=t90x9TlW6Y0&lt;/a&gt;</t>
   </si>
   <si>
     <t>Pathway Analysis in iVariantGuide</t>
   </si>
   <si>
-    <t>Pathway Analysis, iVariantGuide,high-priority variants</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=kupMC6X8RZU'&gt;https://www.youtube.com/watch?v=kupMC6X8RZU&lt;/a&gt;</t>
   </si>
   <si>
     <t>Comparing Pathway Analysis Packages</t>
   </si>
   <si>
-    <t>pathway analysis packages,INGENUITY,ELSEVIER,Enrichr,PANTHER,ADVAITA,GO,Aglient Technologies,GO,IPA,iPathwayGuide</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=oXtgi2QXsvM'&gt;https://www.youtube.com/watch?v=oXtgi2QXsvM&lt;/a&gt;</t>
   </si>
   <si>
     <t>Pathway Analysis of Time Course Expression Data</t>
   </si>
   <si>
-    <t xml:space="preserve"> transcriptome,time-course,TC data,TC experiments,iPathwayGuide,Multi-TC Data Analysis,</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=TSY4C10fBJ0'&gt;https://www.youtube.com/watch?v=TSY4C10fBJ0&lt;/a&gt;</t>
   </si>
   <si>
@@ -297,63 +236,42 @@
     <t>Michael Edwards</t>
   </si>
   <si>
-    <t>hands-on tutorial,IPA, lung cancer,Bioinformatics,GEO,functions,Pathways, gene expression</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=1sCa-lS1ERY'&gt;https://www.youtube.com/watch?v=1sCa-lS1ERY&lt;/a&gt;</t>
   </si>
   <si>
     <t>Bioinformatics analysis on IPA (part 2): networks, upstream regulators and regulatory networks</t>
   </si>
   <si>
-    <t>hands-on tutorial,IPA, lung cancer,Bioinformatics,GEO,functions,Pathways, gene expression,networks,upstream regulators,regulatory networks</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=BUGUEyYX-ew'&gt;https://www.youtube.com/watch?v=BUGUEyYX-ew&lt;/a&gt;</t>
   </si>
   <si>
     <t>Bioinformatics analysis on IPA (part 3): comparison analysis</t>
   </si>
   <si>
-    <t>hands-on tutorial,IPA, lung cancer,Bioinformatics,GEO,functions,Pathways, gene expression,comparison</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=RmcJTXwR00M'&gt;https://www.youtube.com/watch?v=RmcJTXwR00M&lt;/a&gt;</t>
   </si>
   <si>
     <t>AACR-Bioinformatics-2016_pt7_Finding biological functions and pathways in our gene list with IPA</t>
   </si>
   <si>
-    <t>hands-on tutorial,IPA, lung cancer,Bioinformatics,GEO,functions,Pathways, gene expression,Molecular Biology</t>
-  </si>
-  <si>
     <t>Using IPA to analyze RNA-Seq data in Alzheimer's Disease</t>
   </si>
   <si>
     <t>Ingenuity Web Apps</t>
   </si>
   <si>
-    <t>IPA,Alzheimer's,RNA-Seq, transcript expression,pathway,biological signatures,pathway analysis,functional analysis,network creation,DAVID,ORA,data processing,gene subset analysis,</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=dFbO9K319Eg'&gt;https://www.youtube.com/watch?v=dFbO9K319Eg&lt;/a&gt;</t>
   </si>
   <si>
     <t>IPA Data Analysis Part 1</t>
   </si>
   <si>
-    <t>IPA,analysis,pathway,signal,Data upload,filter parameters,core setting options,tools,</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=DtxqK_nL4lw'&gt;https://www.youtube.com/watch?v=DtxqK_nL4lw&lt;/a&gt;</t>
   </si>
   <si>
     <t>Pathway Activity Analysis</t>
   </si>
   <si>
-    <t>p-value,enrichment,DE genes,dataset,prediction,IPA,analysis,pathway,signal,data</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=uBAo2iBax48'&gt;https://www.youtube.com/watch?v=uBAo2iBax48&lt;/a&gt;</t>
   </si>
   <si>
@@ -363,18 +281,12 @@
     <t>UofMMSI</t>
   </si>
   <si>
-    <t>omics data,RNA-seq,biomarkers,IPA,metabolomics,Expression,Ingenuity Pathway Analysis,Breast cancer,Enrichment,hands-on,tutorial</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=vnpSkANL2no'&gt;https://www.youtube.com/watch?v=vnpSkANL2no&lt;/a&gt;</t>
   </si>
   <si>
     <t>Comparison Analysis in IPA</t>
   </si>
   <si>
-    <t>visualization,IPA analysis,time course,prediction,effects on pathways, upstream regulators,diseases,functions</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=G9MVM22f2OI'&gt;https://www.youtube.com/watch?v=G9MVM22f2OI&lt;/a&gt;</t>
   </si>
   <si>
@@ -384,9 +296,6 @@
     <t>GENNews</t>
   </si>
   <si>
-    <t xml:space="preserve">interactions, omics-disease,relationships,canonical pathways,omics experiments, high dimensional data,NGS,Pathway Analysis </t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=XLAQ0-Vguik'&gt;https://www.youtube.com/watch?v=XLAQ0-Vguik&lt;/a&gt;</t>
   </si>
   <si>
@@ -396,9 +305,6 @@
     <t>PartekIncorporated</t>
   </si>
   <si>
-    <t>gene expression,Methylation,Pathway analysis,RNA-Seq data,Cancer,NGS,epigenetic analysis,Partek Software,Visualization</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=no6HxfhoEcw'&gt;https://www.youtube.com/watch?v=no6HxfhoEcw&lt;/a&gt;</t>
   </si>
   <si>
@@ -408,9 +314,6 @@
     <t>subiosupport</t>
   </si>
   <si>
-    <t>Enrichment Analysis,Gene Ontology,canonical pathways, cytobands, miRNAs' target genes, transcription, target genes, David.Functional Annotations,tool</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=7ISzaXJS_WU'&gt;https://www.youtube.com/watch?v=7ISzaXJS_WU&lt;/a&gt;</t>
   </si>
   <si>
@@ -418,9 +321,6 @@
   </si>
   <si>
     <t>Pine Biotech</t>
-  </si>
-  <si>
-    <t>T-BioInfo,Gene Set Enrichment Analysis,Differential Gene Expression,enrichment,pathways,gene sets,NCBI,</t>
   </si>
   <si>
     <t>&lt;a href='https://www.youtube.com/watch?v=4hFtjwSyffc'&gt;https://www.youtube.com/watch?v=4hFtjwSyffc&lt;/a&gt;</t>
@@ -1001,19 +901,127 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1je411s71c/?spm_id_from=333.788.recommend_more_video.5</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Academic,Canadian Bioinformatics Workshop,Pathway,Analysis, Network,Enrichment,Gene list,Omics Data,Annotation,Gene Identifier,Gene Function,Tool</t>
+  </si>
+  <si>
+    <t>Academic,Canadian Bioinformatics Workshop,Annotation,Tool,Missense Effect Prediction Model,Somatic Variants,Pathway,gene,Variant,Protein-coding,Phylop,Gene mapping</t>
+  </si>
+  <si>
+    <t>Academic,Canadian Bioinformatics Workshop,Pathway,Analysis, Biological Interpretations,Enrichment,Expression,GSEA,P-value,Bonferroni,FDR,Network,Mapping,Visualization</t>
+  </si>
+  <si>
+    <t>Academic,Canadian Bioinformatics Workshop,Pathway,Analysis, Network,Gene Function,GO,Database,Kegg,Reactome,FI,Hypergeometric</t>
+  </si>
+  <si>
+    <t>Academic,Canadian Bioinformatics Workshop,Mapping,Gene List,Omics data,ASD,Variants,Pathway,Analysis, Network,Enrichment,Workflow,Identifier,GO,Annotation</t>
+  </si>
+  <si>
+    <t>Academic,Canadian Bioinformatics Workshop,Enrichment Tools,ORA,Enrichment test,Fisher's Exact Test,Hypergenometric Test,Test Correction,FDR,Normalization,Gene list,Time-course,GSEA</t>
+  </si>
+  <si>
+    <t>Academic,Canadian Bioinformatics Workshop,Pathway,Analysis, Network,Enrichment,Gene list,Mechanistic Model,Quantitative model,Pathway Database,Reaction-Network,</t>
+  </si>
+  <si>
+    <t>Academic,Avi Ma'ayan Lab,ORA,GSEA, Gene Set,Hypergenometric Test,Urn model,Fisher Exact test,</t>
+  </si>
+  <si>
+    <t>Academic,Avi Ma'ayan Lab,Jaccard index,ORA,GSEA, Gene Set,Hypergenometric Test,Urn model,Fisher Exact test,</t>
+  </si>
+  <si>
+    <t>Academic,Avi Ma'ayan Lab,Benchmark,Fisher Exact test,Impurity,Machine Learning,Gene Correlation,Enrichment score,Pairwise Enrichment,Bridge Plot,Visualization</t>
+  </si>
+  <si>
+    <t>Academic,GenomeSpace,SNPs,GSEA,Biological,function,Galaxy</t>
+  </si>
+  <si>
+    <t>Academic,NIAID Bioinformatics,DAVID,GSEA,Functional Enrichment Analysis,Gene Set,P-value,Annotation,Gene List,GO</t>
+  </si>
+  <si>
+    <t>Academic,Melinda Song,DAVID,GSEA,Functional Enrichment Analysis,Gene List,Functional Annotation,GO,KEGG,</t>
+  </si>
+  <si>
+    <t>Academic,Broad Institute,GSEA,Tool,MMGP,Functional Enrichment Analysis,Enrichment plot</t>
+  </si>
+  <si>
+    <t>Academic,Reactome,Pathway,Analysis,Reactome,Assignment</t>
+  </si>
+  <si>
+    <t>Academic,single-sample,PARADIGM,Reactome,KEGG,Biocarta,NCI-PID,Pathway Commons,Expression,Function,Pathway,Analysis</t>
+  </si>
+  <si>
+    <t>Academic,Gene Set Analysis,EnrichNet,Network-based,Enrichment,Overlap-based,user-defined,Functional,Visualization, Web-application,Web-service,Visualization,Cellular Pathway</t>
+  </si>
+  <si>
+    <t>Academic,OmicsBox,Blast2GO,GSEA,Gene List,Functional,Visualization,Gene Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial,Advaita BioInformatics,Enrichment Tools,ORA,FCS,PT,Pathway Topology,Enrichment test,GSEA,DE Genes,INSR, pros and cons </t>
+  </si>
+  <si>
+    <t>Commercial,Advaita BioInformatics,Pathway Analysis, iVariantGuide,high-priority variants</t>
+  </si>
+  <si>
+    <t>Commercial,Advaita BioInformatics,Pathway analysis packages,INGENUITY,ELSEVIER,Enrichr,PANTHER,Agilent Technologies,GO,IPA,iPathwayGuide</t>
+  </si>
+  <si>
+    <t>Commercial,Advaita BioInformatics,transcriptome,time-course,TC data,TC experiments,iPathwayGuide,Multi-TC Data Analysis</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,hands-on tutorial,lung cancer,GEO,Function,Pathways, gene expression</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,hands-on tutorial,lung cancer,GEO,Function,Pathways,gene expression,networks,upstream regulators,regulatory networks</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,hands-on tutorial,lung cancer,GEO,Function,Pathways,gene expression,comparison</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,hands-on tutorial,lung cancer,GEO,Function,Pathways,gene expression,Molecular Biology</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,Alzheimer's,RNA-Seq,transcript expression,pathway,biological signatures,pathway analysis,functional analysis,network creation,DAVID,ORA,data processing,gene subset analysis</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,pathway analysis,signal,Data upload,filter parameters,core setting options,tools</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,p-value,enrichment,DE genes,dataset,prediction,pathway analysis,signal,data</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,omics data,RNA-seq,biomarkers,metabolomics,Expression,Breast cancer,Enrichment,hands-on,tutorial</t>
+  </si>
+  <si>
+    <t>Commercial,Qiagen/Ingenuity Pathway Analysis,IPA,visualization,time course,prediction,effects on pathways, upstream regulators,diseases,functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial, MetaCore,Thomson-Reuters,interactions,omics-disease,relationships,canonical pathways,omics experiments,high dimensional data,NGS,Pathway Analysis </t>
+  </si>
+  <si>
+    <t>Commercial,Partek,gene expression,Methylation,Pathway analysis,RNA-Seq data,Cancer,NGS,epigenetic analysis,Partek Software,Visualization</t>
+  </si>
+  <si>
+    <t>Commercial,Subio,Enrichment Analysis,Gene Ontology,canonical pathways,cytobands, miRNAs target genes,transcription, target genes,David.Functional Annotations</t>
+  </si>
+  <si>
+    <t>Commercial,T-BioInfo,Gene Set Enrichment Analysis,Differential Gene Expression,enrichment,pathways,gene sets,NCBI</t>
+  </si>
+  <si>
+    <t>Academic,R,GSEA,GO,heatmap</t>
+  </si>
+  <si>
+    <t>Academic,University of Glasgow,GSEA,RNA-seq,Cytoscape</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,143 +1051,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,212 +1066,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1411,294 +1094,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1822,7 +1258,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1846,9 +1282,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1872,7 +1308,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1925,7 +1361,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1950,30 +1386,30 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="81.2166666666667" customWidth="true"/>
-    <col min="2" max="2" width="22.5583333333333" customWidth="true"/>
-    <col min="3" max="3" width="156.441666666667" customWidth="true"/>
-    <col min="5" max="5" width="17.4416666666667" customWidth="true"/>
+    <col min="1" max="1" width="81.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1981,8 +1417,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+      <c r="B1" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2008,3194 +1444,3188 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2">
         <v>2017</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>2017</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>2017</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
       <c r="F5">
         <v>2017</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6">
         <v>2018</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7">
         <v>2018</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
       <c r="F8">
         <v>2018</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
       </c>
       <c r="F9">
         <v>2016</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
       </c>
       <c r="F10">
         <v>2016</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
       </c>
       <c r="F11">
         <v>2017</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
       </c>
       <c r="F12">
         <v>2017</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
       </c>
       <c r="F13">
         <v>2016</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
       <c r="F14">
         <v>2012</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
         <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
       </c>
       <c r="F15">
         <v>2011</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
         <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
       </c>
       <c r="F16">
         <v>2011</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
         <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
       </c>
       <c r="F17">
         <v>2013</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
       </c>
       <c r="F18">
         <v>2013</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
       </c>
       <c r="F19">
         <v>2016</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
         <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
       </c>
       <c r="F20">
         <v>2009</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
         <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
       </c>
       <c r="F21">
         <v>2018</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.8">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
       </c>
       <c r="F22">
         <v>2017</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" ht="38.4" customHeight="true" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="38.4" customHeight="1">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
       </c>
       <c r="F23">
         <v>2018</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
       </c>
       <c r="F24">
         <v>2016</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
       </c>
       <c r="F25">
         <v>2015</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
         <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
       </c>
       <c r="F26">
         <v>2015</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
       </c>
       <c r="F28">
         <v>2016</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
         <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
       </c>
       <c r="F29">
         <v>2011</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
       </c>
       <c r="F30">
         <v>2013</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
       </c>
       <c r="F31">
         <v>2013</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>321</v>
       </c>
       <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
       </c>
       <c r="F32">
         <v>2018</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
         <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
       </c>
       <c r="F33">
         <v>2015</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>323</v>
       </c>
       <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
         <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
       </c>
       <c r="F34">
         <v>2015</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
         <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
       </c>
       <c r="F35">
         <v>2016</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
         <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
       </c>
       <c r="F36">
         <v>2018</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
         <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
       </c>
       <c r="F37">
         <v>2018</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
       <c r="F38">
         <v>2020</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
         <v>10</v>
       </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
       <c r="F39">
         <v>2020</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F40">
         <v>2021</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>2021</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F42">
         <v>2021</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F43">
         <v>2021</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>2021</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F45">
         <v>2021</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F46">
         <v>2020</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F47">
         <v>2021</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F48">
         <v>2021</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B49" s="6">
         <v>375276</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F49">
         <v>2021</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F50">
         <v>2019</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F51">
         <v>2020</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B52" s="6">
         <v>375276</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F52">
         <v>2021</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F53">
         <v>2020</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>2021</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F55">
         <v>2020</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F56">
         <v>2020</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>2020</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F58">
         <v>2020</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F59">
         <v>2020</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F60">
         <v>2020</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F61">
         <v>2020</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F62">
         <v>2020</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F63">
         <v>2020</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F64">
         <v>2020</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F65">
         <v>2021</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F66">
         <v>2020</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F67">
         <v>2021</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F68">
         <v>2019</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>2020</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>2020</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F71">
         <v>2021</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F72">
         <v>2020</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>2020</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F74">
         <v>2021</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F75">
         <v>2020</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E76" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F76">
         <v>2020</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F77">
         <v>2021</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F78">
         <v>2020</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="BioInfoCloud"/>
-    <hyperlink ref="B38" r:id="rId2" display="Alex Soupir"/>
+    <hyperlink ref="B38" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.8833333333333" customWidth="true"/>
-    <col min="3" max="3" width="76.8833333333333" customWidth="true"/>
+    <col min="1" max="1" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" spans="1:7" ht="28.8">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F1">
         <v>2021</v>
       </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2021</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3">
         <v>2020</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4">
         <v>2020</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2021</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>2021</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>2021</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="1:7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>2021</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" ht="41.25" spans="1:7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>2020</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>2021</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <v>2021</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B12">
         <v>375276</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F12">
         <v>2021</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F13">
         <v>2019</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F14">
         <v>2020</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B15">
         <v>375276</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F15">
         <v>2021</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F16">
         <v>2020</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="1:7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>2021</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" ht="41.25" spans="1:7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>2020</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Alex Soupir"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.youtube.com/watch?v=BZyi8L7vBuc"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://www.bilibili.com/video/BV11K4y1x7kH?from=search&amp;seid=176644729828215224&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G4" r:id="rId4" display="https://www.youtube.com/watch?v=KY6SS4vRchY&amp;list=PLi807-a75VPr1KfPUsD3alC1tFmfuWiYPA"/>
-    <hyperlink ref="G5" r:id="rId5" display="https://www.bilibili.com/video/BV1Vh411Q7po?from=search&amp;seid=176644729828215224&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G6" r:id="rId6" display="https://www.bilibili.com/video/BV1fv411A7WZ"/>
-    <hyperlink ref="G7" r:id="rId7" display="https://www.bilibili.com/video/BV1f54y1S7RG/?spm_id_from=333.788.recommend_more_video.1"/>
-    <hyperlink ref="G8" r:id="rId8" display="https://www.bilibili.com/video/BV1wV411d7cK/?spm_id_from=333.788.recommend_more_video.15"/>
-    <hyperlink ref="G9" r:id="rId9" display="https://www.bilibili.com/video/BV1M54y1d7Ma/?spm_id_from=333.788.videocard.1"/>
-    <hyperlink ref="G10" r:id="rId10" display="https://www.bilibili.com/video/BV1X5411a7Fk/?spm_id_from=333.788.recommend_more_video.2"/>
-    <hyperlink ref="G11" r:id="rId11" display="https://www.bilibili.com/video/BV1b4411Q7q8/?spm_id_from=333.788.recommend_more_video.2"/>
-    <hyperlink ref="G12" r:id="rId12" display="https://www.bilibili.com/video/BV1iV411q74o?p=2&amp;spm_id_from=pageDriver"/>
-    <hyperlink ref="G13" r:id="rId13" display="https://www.bilibili.com/video/BV1FJ411d7x4/?spm_id_from=333.788.recommend_more_video.4"/>
-    <hyperlink ref="G15" r:id="rId14" display="https://www.bilibili.com/video/BV1aT4y1Z7Sf?from=search&amp;seid=7546966034191280934&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G16" r:id="rId15" display="https://www.bilibili.com/video/BV1654y1v7GG?from=search&amp;seid=7546966034191280934&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G14" r:id="rId16" display="https://www.bilibili.com/video/BV1TK411j717?spm_id_from=333.999.0.0"/>
-    <hyperlink ref="G17" r:id="rId17" display="https://www.bilibili.com/video/BV1jA411T7GR/?spm_id_from=autoNext"/>
-    <hyperlink ref="G18" r:id="rId18" display="https://www.bilibili.com/video/BV1Hi4y1g75D/?spm_id_from=333.788.recommend_more_video.0"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId9"/>
+    <hyperlink ref="G10" r:id="rId10"/>
+    <hyperlink ref="G11" r:id="rId11"/>
+    <hyperlink ref="G12" r:id="rId12"/>
+    <hyperlink ref="G13" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G14" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G18" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G39"/>
+      <selection sqref="A1:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="27" spans="1:11">
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F1">
         <v>2021</v>
       </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2021</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" ht="54.75" spans="1:7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="57.6">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2021</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2021</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2021</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>2021</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>2020</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="43.2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>2021</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>2021</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B10">
         <v>375276</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>2021</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <v>2019</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F12">
         <v>2020</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B13">
         <v>375276</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F13">
         <v>2021</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F14">
         <v>2020</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F15">
         <v>2021</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" ht="41.25" spans="1:7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F16">
         <v>2020</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>2020</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="1:7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>2020</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F19">
         <v>2020</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F20">
         <v>2020</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F21">
         <v>2020</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>2020</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>2020</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" ht="69" spans="1:7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <v>2020</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>2020</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="1:7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>2021</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>2020</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" ht="28.5" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>2021</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" ht="28.5" spans="1:7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>2019</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" ht="27.75" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>2020</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>2020</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" ht="28.5" spans="1:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F32">
         <v>2021</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" ht="40.5" spans="1:7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="43.2">
       <c r="A33" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>2020</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>2020</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" ht="28.5" spans="1:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F35">
         <v>2021</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F36">
         <v>2020</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>2020</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" ht="27.75" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8">
       <c r="A38" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>2021</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.8">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F39">
         <v>2020</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.bilibili.com/video/BV11K4y1x7kH?from=search&amp;seid=176644729828215224&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.bilibili.com/video/BV1Vh411Q7po?from=search&amp;seid=176644729828215224&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://www.bilibili.com/video/BV1fv411A7WZ"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.bilibili.com/video/BV1f54y1S7RG/?spm_id_from=333.788.recommend_more_video.1"/>
-    <hyperlink ref="G6" r:id="rId5" display="https://www.bilibili.com/video/BV1wV411d7cK/?spm_id_from=333.788.recommend_more_video.15"/>
-    <hyperlink ref="G7" r:id="rId6" display="https://www.bilibili.com/video/BV1M54y1d7Ma/?spm_id_from=333.788.videocard.1"/>
-    <hyperlink ref="G8" r:id="rId7" display="https://www.bilibili.com/video/BV1X5411a7Fk/?spm_id_from=333.788.recommend_more_video.2"/>
-    <hyperlink ref="G9" r:id="rId8" display="https://www.bilibili.com/video/BV1b4411Q7q8/?spm_id_from=333.788.recommend_more_video.2"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://www.bilibili.com/video/BV1iV411q74o?p=2&amp;spm_id_from=pageDriver"/>
-    <hyperlink ref="G11" r:id="rId10" display="https://www.bilibili.com/video/BV1FJ411d7x4/?spm_id_from=333.788.recommend_more_video.4"/>
-    <hyperlink ref="G13" r:id="rId11" display="https://www.bilibili.com/video/BV1aT4y1Z7Sf?from=search&amp;seid=7546966034191280934&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G14" r:id="rId12" display="https://www.bilibili.com/video/BV1654y1v7GG?from=search&amp;seid=7546966034191280934&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G12" r:id="rId13" display="https://www.bilibili.com/video/BV1TK411j717?spm_id_from=333.999.0.0"/>
-    <hyperlink ref="G15" r:id="rId14" display="https://www.bilibili.com/video/BV1jA411T7GR/?spm_id_from=autoNext"/>
-    <hyperlink ref="G16" r:id="rId15" display="https://www.bilibili.com/video/BV1Hi4y1g75D/?spm_id_from=333.788.recommend_more_video.0"/>
-    <hyperlink ref="G17" r:id="rId16" display="https://www.bilibili.com/video/BV1H54y1q7Wb?from=search&amp;seid=6288630713631723479&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G18" r:id="rId17" display="https://www.bilibili.com/video/BV1s5411W7Yw/?spm_id_from=333.788.recommend_more_video.5"/>
-    <hyperlink ref="G19" r:id="rId18" display="https://www.bilibili.com/video/BV17K4y1t7Ev/?spm_id_from=333.788.recommend_more_video.0"/>
-    <hyperlink ref="G24" r:id="rId19" display="https://www.bilibili.com/video/BV1c5411a7fS?from=search&amp;seid=17919270164504373121&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G25" r:id="rId20" display="https://www.bilibili.com/video/BV1TK411W7TM?from=search&amp;seid=17919270164504373121&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G20" r:id="rId21" display="https://www.bilibili.com/video/BV1xK4y1e7X7?from=search&amp;seid=16992131358679582220&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G21" r:id="rId22" display="https://www.bilibili.com/video/BV1ca4y1v7Mw?from=search&amp;seid=15162425852620093238&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G23" r:id="rId23" display="https://www.bilibili.com/video/BV17K4y1t7Ev?from=search&amp;seid=3858344407844926490&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G22" r:id="rId24" display="https://www.bilibili.com/video/BV12T4y1E7UW?from=search&amp;seid=3858344407844926490&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G26" r:id="rId25" display="https://www.bilibili.com/video/BV1fh4111714?spm_id_from=333.999.0.0"/>
-    <hyperlink ref="G27" r:id="rId26" display="https://www.bilibili.com/video/BV1j54y1B7VF/?spm_id_from=333.788.recommend_more_video.2"/>
-    <hyperlink ref="G28" r:id="rId27" display="https://www.bilibili.com/video/BV1fA411V7kR/?spm_id_from=333.788.recommend_more_video.-1"/>
-    <hyperlink ref="G29" r:id="rId28" display="https://www.bilibili.com/video/BV1Db411L7UH/?spm_id_from=333.788.recommend_more_video.1"/>
-    <hyperlink ref="G31" r:id="rId29" display="https://www.bilibili.com/video/BV1ha4y1H7Np?from=search&amp;seid=17506667166661257321&amp;spm_id_from=333.337.0.0"/>
-    <hyperlink ref="G32" r:id="rId30" display="https://www.bilibili.com/video/BV1kr4y1K7yX?spm_id_from=333.999.0.0"/>
-    <hyperlink ref="G33" r:id="rId31" display="https://www.bilibili.com/video/BV1154y127xf/?spm_id_from=333.788.recommend_more_video.2"/>
-    <hyperlink ref="G34" r:id="rId32" display="https://www.bilibili.com/video/BV1Bt4y1i72i/?spm_id_from=333.788.recommend_more_video.1"/>
-    <hyperlink ref="G35" r:id="rId33" display="https://www.bilibili.com/video/BV16L4y1z75k?spm_id_from=333.999.0.0"/>
-    <hyperlink ref="G36" r:id="rId34" display="https://www.bilibili.com/video/BV1kq4y1s7sD/?spm_id_from=333.788.recommend_more_video.6"/>
-    <hyperlink ref="G37" r:id="rId35" display="https://www.bilibili.com/video/BV1Rg4y1i7eW/?spm_id_from=333.788.recommend_more_video.10"/>
-    <hyperlink ref="G38" r:id="rId36" display="https://www.bilibili.com/video/BV19L4y1e7zv?spm_id_from=333.999.0.0"/>
-    <hyperlink ref="G39" r:id="rId37" display="https://www.bilibili.com/video/BV1je411s71c/?spm_id_from=333.788.recommend_more_video.5"/>
-    <hyperlink ref="G30" r:id="rId38" display="https://www.bilibili.com/video/BV1sT4y1u7Bb/?spm_id_from=333.788.recommend_more_video.18"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G12" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="G18" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G24" r:id="rId19"/>
+    <hyperlink ref="G25" r:id="rId20"/>
+    <hyperlink ref="G20" r:id="rId21"/>
+    <hyperlink ref="G21" r:id="rId22"/>
+    <hyperlink ref="G23" r:id="rId23"/>
+    <hyperlink ref="G22" r:id="rId24"/>
+    <hyperlink ref="G26" r:id="rId25"/>
+    <hyperlink ref="G27" r:id="rId26"/>
+    <hyperlink ref="G28" r:id="rId27"/>
+    <hyperlink ref="G29" r:id="rId28"/>
+    <hyperlink ref="G31" r:id="rId29"/>
+    <hyperlink ref="G32" r:id="rId30"/>
+    <hyperlink ref="G33" r:id="rId31"/>
+    <hyperlink ref="G34" r:id="rId32"/>
+    <hyperlink ref="G35" r:id="rId33"/>
+    <hyperlink ref="G36" r:id="rId34"/>
+    <hyperlink ref="G37" r:id="rId35"/>
+    <hyperlink ref="G38" r:id="rId36"/>
+    <hyperlink ref="G39" r:id="rId37"/>
+    <hyperlink ref="G30" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>